--- a/test/integration/project/data_nilai_inventory.xlsx
+++ b/test/integration/project/data_nilai_inventory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="13395" windowHeight="5700" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="13395" windowHeight="5700" firstSheet="21" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="fakturjual" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="satuan" sheetId="24" r:id="rId24"/>
     <sheet name="stokproduk" sheetId="25" r:id="rId25"/>
     <sheet name="supplier" sheetId="26" r:id="rId26"/>
+    <sheet name="hibernate_sequences" sheetId="27" r:id="rId27"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="150">
   <si>
     <t>DTYPE</t>
   </si>
@@ -471,6 +472,27 @@
   </si>
   <si>
     <t>unit</t>
+  </si>
+  <si>
+    <t>sequence_name</t>
+  </si>
+  <si>
+    <t>sequence_next_hi_value</t>
+  </si>
+  <si>
+    <t>KategoriKas</t>
+  </si>
+  <si>
+    <t>FakturBeli</t>
+  </si>
+  <si>
+    <t>KewajibanPembayaran</t>
+  </si>
+  <si>
+    <t>PeriodeItemStok</t>
+  </si>
+  <si>
+    <t>ItemStok</t>
   </si>
 </sst>
 </file>
@@ -4039,6 +4061,74 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
@@ -4158,8 +4248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test/integration/project/data_nilai_inventory.xlsx
+++ b/test/integration/project/data_nilai_inventory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="13395" windowHeight="5700" firstSheet="21" activeTab="26"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="13395" windowHeight="5700" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="fakturjual" sheetId="1" r:id="rId1"/>
@@ -4065,7 +4065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -4173,8 +4173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test/integration/project/data_nilai_inventory.xlsx
+++ b/test/integration/project/data_nilai_inventory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="13395" windowHeight="5700" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="13395" windowHeight="5700"/>
   </bookViews>
   <sheets>
     <sheet name="fakturjual" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="151">
   <si>
     <t>DTYPE</t>
   </si>
@@ -493,6 +493,9 @@
   </si>
   <si>
     <t>ItemStok</t>
+  </si>
+  <si>
+    <t>poinBerlaku</t>
   </si>
 </sst>
 </file>
@@ -877,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,9 +908,10 @@
     <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -968,8 +972,11 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1006,8 +1013,11 @@
       <c r="Q2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1053,8 +1063,11 @@
       <c r="T3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1100,8 +1113,11 @@
       <c r="T4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1141,8 +1157,11 @@
       <c r="S5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1188,8 +1207,11 @@
       <c r="T6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1227,6 +1249,9 @@
         <v>0</v>
       </c>
       <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="U7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4173,8 +4198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
